--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2280409.802002533</v>
+        <v>2277866.015257076</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9528278.787480809</v>
+        <v>9528278.787480807</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651829</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651829</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.2762171674062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605544</v>
+        <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.793800617969</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>258.6025264431426</v>
       </c>
       <c r="W2" t="n">
-        <v>263.3828147651829</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642677</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.8406290525948</v>
+        <v>36.04855291082699</v>
       </c>
     </row>
     <row r="4">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>59.64616940895532</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>103.8182451401438</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>104.1383913127195</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.837728992231069</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.93214106303625</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>233.696754054319</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>199.6452357812556</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812543241</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899091</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754284</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826188888</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183348</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217875</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.4880118231731</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="C2" t="n">
-        <v>521.4447645856146</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="D2" t="n">
-        <v>255.4015173480561</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683774</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763427</v>
+        <v>416.5947907116936</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121463</v>
+        <v>403.629820675274</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121463</v>
+        <v>137.5865734377191</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467414</v>
+        <v>49.159939014673</v>
       </c>
       <c r="K2" t="n">
-        <v>141.997057293558</v>
+        <v>141.9970572935554</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735960004</v>
+        <v>294.0714735959958</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796026</v>
+        <v>494.9530007795958</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670394</v>
+        <v>703.6988094670299</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289027</v>
+        <v>887.4762960288915</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108077</v>
+        <v>1009.825128108064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060732</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060732</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060732</v>
+        <v>899.1940867193345</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060732</v>
+        <v>684.7549646357886</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060732</v>
+        <v>684.7549646357886</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060732</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="W2" t="n">
-        <v>787.4880118231731</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="X2" t="n">
-        <v>787.4880118231731</v>
+        <v>423.5402914608971</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.4880118231731</v>
+        <v>423.5402914608971</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.6955191290484</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2424898479214</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="D3" t="n">
-        <v>180.3080801866701</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799718</v>
+        <v>117.0004092799668</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124685</v>
+        <v>191.5864341124625</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420762</v>
+        <v>338.1990901420688</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286636</v>
+        <v>528.6460126286545</v>
       </c>
       <c r="N3" t="n">
-        <v>738.542143376714</v>
+        <v>738.5421433767033</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748611</v>
+        <v>908.3363012748489</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.27801606223</v>
+        <v>1025.278016062217</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060732</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.15693115525</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.15693115525</v>
+        <v>904.8834594766879</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.15693115525</v>
+        <v>708.0718853367791</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.15693115525</v>
+        <v>479.9359986373901</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.15693115525</v>
+        <v>479.9359986373901</v>
       </c>
       <c r="W3" t="n">
-        <v>1035.15693115525</v>
+        <v>225.6986419091884</v>
       </c>
       <c r="X3" t="n">
-        <v>827.3054309497172</v>
+        <v>225.6986419091884</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9108561491164</v>
+        <v>189.2859622012824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.9903056738539</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="C4" t="n">
-        <v>465.9903056738539</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="D4" t="n">
-        <v>315.8736662615181</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="E4" t="n">
-        <v>167.960572679125</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121463</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121463</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121463</v>
+        <v>21.07062518121435</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940779</v>
+        <v>126.3277805481196</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964437</v>
+        <v>315.717772996433</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030413</v>
+        <v>526.6665349030299</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670194</v>
+        <v>738.034023167007</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836395</v>
+        <v>917.2498138836263</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097382</v>
+        <v>1047.079201097368</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060732</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060732</v>
+        <v>924.7153898971956</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060732</v>
+        <v>717.9193086652568</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060732</v>
+        <v>717.9193086652568</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060732</v>
+        <v>657.6706526966151</v>
       </c>
       <c r="V4" t="n">
-        <v>798.8467708548447</v>
+        <v>402.9861644907282</v>
       </c>
       <c r="W4" t="n">
-        <v>693.9798565718712</v>
+        <v>402.9861644907282</v>
       </c>
       <c r="X4" t="n">
-        <v>465.9903056738539</v>
+        <v>174.9966135927109</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.9903056738539</v>
+        <v>174.9966135927109</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388467</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>683.2875691835745</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163965</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278689</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810723</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528707</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.518372282384</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.0535307279125</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>393.0535307279125</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>393.0535307279125</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640391</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640391</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>574.7019955581522</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>574.7019955581522</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>574.7019955581522</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.7019955581522</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.28200107256</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.28200107256</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.513345802446</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.513345802446</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143429</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458158</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105037</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701984</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878146</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710444</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657537</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378468</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>397.545532825511</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431179</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452076</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074502</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074502</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037541</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139524</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959934</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579734</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>397.4723325755803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876671</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597602</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650314</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179068</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,28 +5738,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453446</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453446</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877248</v>
+        <v>60.59164343877325</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.00790724000548</v>
+        <v>99.00790724000139</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266941045</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>161.6369618909974</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594092</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780561</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.58048154589973</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553884</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016407</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610424</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604354</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143904</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749577</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012254</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>838026.8832353075</v>
+        <v>838026.8832353074</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>843920.367451552</v>
+        <v>843920.3674515522</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909322</v>
+        <v>679702.4124909281</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680915342</v>
+        <v>366.4703680954746</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059454</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642144</v>
+        <v>68912.53318642061</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774205444</v>
+        <v>85.20559774296679</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756968</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674024</v>
+        <v>253116.5477674034</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181818</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>12386.92018181818</v>
       </c>
-      <c r="G4" t="n">
-        <v>12386.92018181815</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>12386.92018181817</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181814</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557708</v>
+        <v>63021.4616455768</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380059.0945056985</v>
+        <v>-380059.0945056959</v>
       </c>
       <c r="C6" t="n">
-        <v>299350.2889185196</v>
+        <v>299350.2889185156</v>
       </c>
       <c r="D6" t="n">
-        <v>-11031.76611527664</v>
+        <v>-11031.76611527504</v>
       </c>
       <c r="E6" t="n">
-        <v>-15634.94186276481</v>
+        <v>-15669.67978820248</v>
       </c>
       <c r="F6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363434</v>
       </c>
       <c r="G6" t="n">
-        <v>491850.499761779</v>
+        <v>491815.7618363434</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363437</v>
       </c>
       <c r="I6" t="n">
-        <v>491850.4997617787</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="J6" t="n">
-        <v>422937.9665753574</v>
+        <v>422903.2286499226</v>
       </c>
       <c r="K6" t="n">
-        <v>491765.294164037</v>
+        <v>491730.5562386004</v>
       </c>
       <c r="L6" t="n">
-        <v>396467.8536242094</v>
+        <v>396433.1156987736</v>
       </c>
       <c r="M6" t="n">
-        <v>359243.2060328522</v>
+        <v>359208.4681074165</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363431</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.499761779</v>
+        <v>491815.7618363436</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.4997617792</v>
+        <v>491815.7618363433</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960533</v>
+        <v>613.7700232960502</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651829</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960533</v>
+        <v>613.7700232960502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734250686</v>
+        <v>0.2849904734281381</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480632</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651829</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363232975</v>
+        <v>0.3310652363268425</v>
       </c>
       <c r="D4" t="n">
+        <v>376.8709520985327</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996095</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.3828147651793</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3310652363268425</v>
+      </c>
+      <c r="L4" t="n">
         <v>376.8709520985325</v>
       </c>
-      <c r="E4" t="n">
-        <v>532.1234559996096</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.3828147651826</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3310652363232975</v>
-      </c>
-      <c r="L4" t="n">
-        <v>376.8709520985326</v>
-      </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651829</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363232975</v>
+        <v>0.3310652363268425</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985325</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058247</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550006</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6541529048556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>50.82255116533889</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739392</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>69.1497320269923</v>
       </c>
       <c r="W2" t="n">
-        <v>85.85815395223011</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500675</v>
+        <v>99.48524054500682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807528</v>
+        <v>43.9429094280755</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642718</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.84206672470955</v>
+        <v>169.6341428664774</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180231</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825629</v>
+        <v>15.10853304825667</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718862</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196192</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>226.612489125572</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>182.7047531964472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>277.7919787595423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776178</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,7 +27673,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.6954546576363</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,7 +27710,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.50182158353292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>17.34849607414301</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.0858648972134</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193718</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28293,10 +28293,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>3.934838294275448e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18638340530918e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.061875451984413e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.061875451984413e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46741717907961</v>
+        <v>2.467417179079597</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524906</v>
+        <v>25.26943618524893</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646674</v>
+        <v>95.12510079646626</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029082</v>
+        <v>209.4189488029072</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933481</v>
+        <v>313.8647179933465</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876058</v>
+        <v>389.3769364876038</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460628</v>
+        <v>433.2568667460606</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061228</v>
+        <v>440.2674158061205</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316499</v>
+        <v>415.7320362316478</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231219</v>
+        <v>354.8176746231202</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973334</v>
+        <v>266.453296897332</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753596</v>
+        <v>154.9938943753589</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827666</v>
+        <v>56.22626896827637</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.80111870142094</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263687</v>
+        <v>0.1973933743263677</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410379</v>
+        <v>1.320184578410372</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148971</v>
+        <v>12.75020369148965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4537234233398</v>
+        <v>45.45372342333958</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435876</v>
+        <v>124.728491243587</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997083</v>
+        <v>213.1808579970819</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289728</v>
+        <v>286.6479717289714</v>
       </c>
       <c r="M3" t="n">
-        <v>334.504662696349</v>
+        <v>334.5046626963473</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682327</v>
+        <v>343.358005768231</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466132</v>
+        <v>314.1054948466117</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439959</v>
+        <v>252.0973516439947</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774371</v>
+        <v>168.5204033774363</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621636</v>
+        <v>81.96724952621595</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564891</v>
+        <v>24.52184951564878</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312007</v>
+        <v>5.32127029631198</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963021</v>
+        <v>0.08685424857962978</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665014</v>
+        <v>1.106798402665008</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058041</v>
+        <v>9.840443980057991</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923516</v>
+        <v>33.28444650923499</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841648</v>
+        <v>78.2506470684161</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823534</v>
+        <v>128.5898507823528</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653058</v>
+        <v>164.550737065305</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195712</v>
+        <v>173.4956805195704</v>
       </c>
       <c r="N4" t="n">
-        <v>169.370341018729</v>
+        <v>169.3703410187282</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148695</v>
+        <v>156.4409233148687</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005031</v>
+        <v>133.8622359005024</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770405</v>
+        <v>92.67927351770358</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528325</v>
+        <v>49.76568090528301</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735301</v>
+        <v>19.28847761735291</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477786</v>
+        <v>4.729047720477762</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354629</v>
+        <v>0.06037082196354598</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622189</v>
+        <v>28.37304427622087</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836756</v>
+        <v>93.77486694836597</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176186</v>
+        <v>153.6105215176166</v>
       </c>
       <c r="M2" t="n">
-        <v>202.91063351879</v>
+        <v>202.9106335187879</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095318</v>
+        <v>210.8543522095296</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099632</v>
+        <v>185.6338248099611</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678524</v>
+        <v>123.5846788678506</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288388</v>
+        <v>44.14760702288251</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.8987718169264</v>
+        <v>96.89877181692168</v>
       </c>
       <c r="K3" t="n">
-        <v>75.339419022724</v>
+        <v>75.33941902272292</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490987</v>
+        <v>148.0935919490972</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743307</v>
+        <v>192.370628774329</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848994</v>
+        <v>212.0162936848977</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021688</v>
+        <v>171.5092504021673</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296657</v>
+        <v>118.1229442296645</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141562</v>
+        <v>28.53862929141479</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059225</v>
+        <v>106.3203589564699</v>
       </c>
       <c r="L4" t="n">
-        <v>192.140762325622</v>
+        <v>191.3030226750641</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814118</v>
+        <v>213.0795574814109</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979576</v>
+        <v>213.5025133979568</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289092</v>
+        <v>181.0260512289084</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653966</v>
+        <v>131.1407951653959</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009662</v>
+        <v>6.517230266009193</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181793</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333351</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215418</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>15.64270034434984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899095</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060475</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
